--- a/Finite State Machine/STT.xlsx
+++ b/Finite State Machine/STT.xlsx
@@ -556,7 +556,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1106,7 +1106,7 @@
         <v>48</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>42</v>
@@ -1183,7 +1183,7 @@
         <v>48</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>44</v>
@@ -1227,7 +1227,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>37</v>
@@ -1295,7 +1295,7 @@
         <v>36</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>48</v>
